--- a/ResultadoEleicoesDistritos/SETÚBAL_SEIXAL.xlsx
+++ b/ResultadoEleicoesDistritos/SETÚBAL_SEIXAL.xlsx
@@ -597,64 +597,64 @@
         <v>43546</v>
       </c>
       <c r="H2" t="n">
-        <v>1641</v>
+        <v>1560</v>
       </c>
       <c r="I2" t="n">
-        <v>4307</v>
+        <v>4373</v>
       </c>
       <c r="J2" t="n">
-        <v>17770</v>
+        <v>17864</v>
       </c>
       <c r="K2" t="n">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="L2" t="n">
-        <v>4859</v>
+        <v>5009</v>
       </c>
       <c r="M2" t="n">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="N2" t="n">
-        <v>3146</v>
+        <v>3065</v>
       </c>
       <c r="O2" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="P2" t="n">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="Q2" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="R2" t="n">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="S2" t="n">
-        <v>1921</v>
+        <v>1905</v>
       </c>
       <c r="T2" t="n">
-        <v>3196</v>
+        <v>3238</v>
       </c>
       <c r="U2" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="V2" t="n">
-        <v>27895</v>
+        <v>27902</v>
       </c>
       <c r="W2" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="X2" t="n">
-        <v>27993</v>
+        <v>27762</v>
       </c>
       <c r="Y2" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="Z2" t="n">
-        <v>395</v>
+        <v>427</v>
       </c>
       <c r="AA2" t="n">
-        <v>168</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
